--- a/thesis_extension/students_verlängert.xlsx
+++ b/thesis_extension/students_verlängert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>23.12.2021</t>
   </si>
   <si>
-    <t>27.12.2021</t>
+    <t>24.01.2022</t>
   </si>
   <si>
     <t>Idiot</t>
@@ -55,7 +55,7 @@
     <t>31.03.2021</t>
   </si>
   <si>
-    <t>06.04.2021</t>
+    <t>Kein Verlängerungsanspruch</t>
   </si>
   <si>
     <t>Vollspacko</t>
@@ -70,9 +70,6 @@
     <t>30.08.2021</t>
   </si>
   <si>
-    <t>Kein Verlängerungsanspruch</t>
-  </si>
-  <si>
     <t>Hirntot</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>15.11.2021</t>
   </si>
   <si>
-    <t>17.11.2021</t>
+    <t>16.12.2021</t>
   </si>
 </sst>
 </file>
@@ -494,24 +491,24 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
